--- a/bot/files/realty_database.xlsx
+++ b/bot/files/realty_database.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,32 +496,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 4-к., 4/5 эт.</t>
+          <t>Комната 18,9 м² в 4-к., 4/4 эт.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_4-k._45et._2469931857</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_189m_v_4-k._44et._2955759215</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2469931857</v>
+        <v>2955759215</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.08.2023 в 21:09</t>
+          <t>21.08.2023 в 18:05</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1890000</v>
+        <v>1860000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>р-н Советский, Агрызская ул., 82</t>
+          <t>Авиастроительная, ул. Белинского, 3</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>18</v>
+        <v>18.9</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -532,11 +532,11 @@
         <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.833476,49.201698</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853541875782014,49.08239351841593</t>
         </is>
       </c>
     </row>
@@ -546,47 +546,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 1-к., 1/2 эт.</t>
+          <t>Комната 18,8 м² в 3-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_1-k._12et._3240846885</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_188m_v_3-k._45et._3380652168</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3240846885</v>
+        <v>3380652168</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.08.2023 в 09:17</t>
+          <t>21.08.2023 в 14:58</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000000</v>
+        <v>1870000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>р-н Советский, ул. Заря, 14</t>
+          <t>Яшьлек, ул. Шамиля Усманова, 7</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>16.5</v>
+        <v>18.8</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.805741,49.181369</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.828293,49.077345</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.08.2023 в 08:23</t>
+          <t>21.08.2023 в 08:23</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -646,32 +646,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Комната 16,7 м² в 1-к., 5/5 эт.</t>
+          <t>Комната 17,7 м² в 1-к., 2/9 эт.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_167m_v_1-k._55et._2932721100</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_177m_v_1-k._29et._3041699199</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2932721100</v>
+        <v>3041699199</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>19.08.2023 в 21:48</t>
+          <t>21.08.2023 в 08:04</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1299900</v>
+        <v>1999000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>р-н Московский, ул. Химиков, 3</t>
+          <t>Проспект Победы, пр-т Победы, 47</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>16.7</v>
+        <v>17.7</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -679,14 +679,14 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862850189208984,49.016292572021484</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.756113,49.214805</t>
         </is>
       </c>
     </row>
@@ -696,47 +696,47 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 3/3 эт.</t>
+          <t>Комната 25 м² в 3-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._33et._2858380284</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_25m_v_3-k._55et._3220670702</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2858380284</v>
+        <v>3220670702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>19.08.2023 в 11:08</t>
+          <t>21.08.2023 в 00:37</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1299999</v>
+        <v>1750000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Авиастроительная, Тэцевская ул., 11Б</t>
+          <t>Горки, ул. Хусаина Мавлютова, 28</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.856149,49.021694</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.75175835,49.1873629221139</t>
         </is>
       </c>
     </row>
@@ -746,28 +746,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 3/3 эт.</t>
+          <t>Комната 18 м² в 4-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._33et._2719241418</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_4-k._45et._2469931857</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2719241418</v>
+        <v>2469931857</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.08.2023 в 22:48</t>
+          <t>20.08.2023 в 21:09</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2000000</v>
+        <v>1890000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Белинского</t>
+          <t>р-н Советский, Агрызская ул., 82</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -775,18 +775,18 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.854072,49.076222</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.833476,49.201698</t>
         </is>
       </c>
     </row>
@@ -796,32 +796,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Комната 16,9 м² в 1-к., 2/9 эт.</t>
+          <t>Комната 16,5 м² в 1-к., 1/2 эт.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_169m_v_1-k._29et._3056803176</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_1-k._12et._3240846885</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3056803176</v>
+        <v>3240846885</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18.08.2023 в 21:35</t>
+          <t>20.08.2023 в 09:17</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>р-н Приволжский, Авангардная ул., 185</t>
+          <t>р-н Советский, ул. Заря, 14</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -829,14 +829,14 @@
         </is>
       </c>
       <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="K8" t="n">
-        <v>9</v>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.73456573486328,49.145347595214844</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.805741,49.181369</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Комната 18,5 м² в 1-к., 4/5 эт.</t>
+          <t>Комната 16,7 м² в 1-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_185m_v_1-k._45et._3183059449</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_167m_v_1-k._55et._2932721100</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3183059449</v>
+        <v>2932721100</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>17.08.2023 в 19:31</t>
+          <t>19.08.2023 в 21:48</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1830000</v>
+        <v>1299900</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Северный вокзал, Выборгская ул., 2</t>
+          <t>р-н Московский, ул. Химиков, 3</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>18.5</v>
+        <v>16.7</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -879,14 +879,14 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.842752,49.033462</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862850189208984,49.016292572021484</t>
         </is>
       </c>
     </row>
@@ -896,32 +896,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Комната 17,2 м² в 1-к., 1/2 эт.</t>
+          <t>Комната 18 м² в 1-к., 3/3 эт.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_172m_v_1-k._12et._2104600330</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._33et._2858380284</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2104600330</v>
+        <v>2858380284</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17.08.2023 в 16:52</t>
+          <t>19.08.2023 в 11:08</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1200000</v>
+        <v>1299999</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Суконная слобода, ул. Наки Исанбета, 49</t>
+          <t>Авиастроительная, Тэцевская ул., 11Б</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -929,14 +929,14 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.784371106131736,49.17218173633924</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.856149,49.021694</t>
         </is>
       </c>
     </row>
@@ -946,47 +946,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Комната 20 м² в 2-к., 1/3 эт.</t>
+          <t>Комната 18 м² в 1-к., 3/3 эт.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_20m_v_2-k._13et._2689498401</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._33et._2719241418</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2689498401</v>
+        <v>2719241418</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17.08.2023 в 09:03</t>
+          <t>18.08.2023 в 22:48</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1950000</v>
+        <v>2000000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Суконная слобода, ул. Николая Ершова, 47/5</t>
+          <t>Авиастроительная, ул. Белинского</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.796375,49.174156</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.854072,49.076222</t>
         </is>
       </c>
     </row>
@@ -996,47 +996,47 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 5-к., 2/5 эт.</t>
+          <t>Комната 16,9 м² в 1-к., 2/9 эт.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_5-k._25et._3213510693</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_169m_v_1-k._29et._3056803176</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3213510693</v>
+        <v>3056803176</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>17.08.2023 в 06:53</t>
+          <t>18.08.2023 в 21:35</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1299000</v>
+        <v>1900000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>р-н Московский, Беломорская ул., 244</t>
+          <t>р-н Приволжский, Авангардная ул., 185</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J12" t="n">
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.867657,49.018719</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.73456573486328,49.145347595214844</t>
         </is>
       </c>
     </row>
@@ -1046,32 +1046,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Комната 18,1 м² в 1-к., 9/9 эт.</t>
+          <t>Комната 18,5 м² в 1-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_181m_v_1-k._99et._2948772414</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_185m_v_1-k._45et._3183059449</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2948772414</v>
+        <v>3183059449</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16.08.2023 в 13:50</t>
+          <t>17.08.2023 в 19:31</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1700000</v>
+        <v>1830000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Академика Павлова, 11</t>
+          <t>Северный вокзал, Выборгская ул., 2</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18.1</v>
+        <v>18.5</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1079,14 +1079,14 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.863762,49.101779</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.842752,49.033462</t>
         </is>
       </c>
     </row>
@@ -1096,32 +1096,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Комната 16,4 м² в 1-к., 2/2 эт.</t>
+          <t>Комната 17,2 м² в 1-к., 1/2 эт.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_164m_v_1-k._22et._3006616526</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_172m_v_1-k._12et._2104600330</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3006616526</v>
+        <v>2104600330</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>16.08.2023 в 09:13</t>
+          <t>17.08.2023 в 16:52</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1560000</v>
+        <v>1200000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Максимова, 31</t>
+          <t>Суконная слобода, ул. Наки Исанбета, 49</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>16.4</v>
+        <v>17.2</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1129,14 +1129,14 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86161,49.087684</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.784371106131736,49.17218173633924</t>
         </is>
       </c>
     </row>
@@ -1146,28 +1146,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Комната 20 м² в 3-к., 3/5 эт.</t>
+          <t>Комната 20 м² в 2-к., 1/3 эт.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_20m_v_3-k._35et._3245751492</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_20m_v_2-k._13et._2689498401</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3245751492</v>
+        <v>2689498401</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>15.08.2023 в 18:14</t>
+          <t>17.08.2023 в 09:03</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1850000</v>
+        <v>1950000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Лядова, 6</t>
+          <t>Суконная слобода, ул. Николая Ершова, 47/5</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1175,18 +1175,18 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
         <v>3</v>
       </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853424,49.078629</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.796375,49.174156</t>
         </is>
       </c>
     </row>
@@ -1196,28 +1196,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 2-к., 5/9 эт.</t>
+          <t>Комната 17 м² в 5-к., 2/5 эт.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_2-k._59et._2819724598</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_5-k._25et._3213510693</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2819724598</v>
+        <v>3213510693</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15.08.2023 в 14:37</t>
+          <t>17.08.2023 в 06:53</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1750000</v>
+        <v>1299000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>р-н Советский, Парковая ул., 22</t>
+          <t>р-н Московский, Беломорская ул., 244</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1225,18 +1225,18 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
-        <v>9</v>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.859003,49.222872</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.867657,49.018719</t>
         </is>
       </c>
     </row>
@@ -1246,47 +1246,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Комната 16,6 м² в 3-к., 2/5 эт.</t>
+          <t>Комната 18,1 м² в 1-к., 9/9 эт.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_166m_v_3-k._25et._3184177794</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_181m_v_1-k._99et._2948772414</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3184177794</v>
+        <v>2948772414</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>15.08.2023 в 12:48</t>
+          <t>16.08.2023 в 13:50</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1750000</v>
+        <v>1700000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Копылова, 5/1</t>
+          <t>Авиастроительная, ул. Академика Павлова, 11</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>16.6</v>
+        <v>18.1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853375,49.08366</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.863762,49.101779</t>
         </is>
       </c>
     </row>
@@ -1296,47 +1296,47 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 5-к., 5/5 эт.</t>
+          <t>Комната 16,4 м² в 1-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_5-k._55et._3174810523</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_164m_v_1-k._22et._3006616526</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3174810523</v>
+        <v>3006616526</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>15.08.2023 в 11:00</t>
+          <t>16.08.2023 в 09:13</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2000000</v>
+        <v>1560000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Яшьлек, ул. Восстания, 21</t>
+          <t>Авиастроительная, ул. Максимова, 31</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>16.4</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83475875854492,49.09464645385742</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86161,49.087684</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Комната 17,1 м² в 2-к., 4/9 эт.</t>
+          <t>Комната 20 м² в 3-к., 3/5 эт.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_171m_v_2-k._49et._2475180318</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_20m_v_3-k._35et._3245751492</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2475180318</v>
+        <v>3245751492</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15.08.2023 в 10:39</t>
+          <t>15.08.2023 в 18:14</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1770000</v>
+        <v>1850000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Дементьева, 7А</t>
+          <t>Авиастроительная, ул. Лядова, 6</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>17.1</v>
+        <v>20</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.858948,49.101419</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853424,49.078629</t>
         </is>
       </c>
     </row>
@@ -1396,47 +1396,47 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Комната 17,4 м² в 5-к., 2/5 эт.</t>
+          <t>Комната 17 м² в 2-к., 5/9 эт.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_5-k._25et._2478896482</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_2-k._59et._2819724598</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2478896482</v>
+        <v>2819724598</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>15.08.2023 в 09:14</t>
+          <t>15.08.2023 в 14:37</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1880000</v>
+        <v>1750000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Яшьлек, Коллективная ул., 27</t>
+          <t>р-н Советский, Парковая ул., 22</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.833885,49.093529</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.859003,49.222872</t>
         </is>
       </c>
     </row>
@@ -1446,47 +1446,47 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Комната 24,3 м² в 3-к., 2/2 эт.</t>
+          <t>Комната 17 м² в 5-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_243m_v_3-k._22et._3110771111</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_5-k._55et._3174810523</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3110771111</v>
+        <v>3174810523</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>14.08.2023 в 17:00</t>
+          <t>15.08.2023 в 11:00</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>р-н Советский, Советский район, посёлок Дербышки, ул. Правды, 26</t>
+          <t>Яшьлек, ул. Восстания, 21</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>24.3</v>
+        <v>17</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.869425,49.220859</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83475875854492,49.09464645385742</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Комната 16,1 м² в 4-к., 7/9 эт.</t>
+          <t>Комната 17,1 м² в 2-к., 4/9 эт.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_161m_v_4-k._79et._3112281586</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_171m_v_2-k._49et._2475180318</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3112281586</v>
+        <v>2475180318</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>13.08.2023 в 08:48</t>
+          <t>15.08.2023 в 10:39</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1990000</v>
+        <v>1770000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Горки, Советский район, микрорайон Азино-1, ул. Закиева, 9</t>
+          <t>Авиастроительная, ул. Дементьева, 7А</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>16.1</v>
+        <v>17.1</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>9</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.776517,49.224363</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.858948,49.101419</t>
         </is>
       </c>
     </row>
@@ -1546,47 +1546,47 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 2-к., 2/9 эт.</t>
+          <t>Комната 17,4 м² в 5-к., 2/5 эт.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_2-k._29et._2943604766</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_5-k._25et._2478896482</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2943604766</v>
+        <v>2478896482</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>12.08.2023 в 15:23</t>
+          <t>15.08.2023 в 09:14</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1650000</v>
+        <v>1880000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
+          <t>Яшьлек, Коллективная ул., 27</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>17</v>
+        <v>17.4</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.797994,49.049092</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.833885,49.093529</t>
         </is>
       </c>
     </row>
@@ -1596,47 +1596,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 9/9 эт.</t>
+          <t>Комната 24,3 м² в 3-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._99et._3165320869</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_243m_v_3-k._22et._3110771111</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3165320869</v>
+        <v>3110771111</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>12.08.2023 в 04:53</t>
+          <t>14.08.2023 в 17:00</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1699000</v>
+        <v>1900000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Академика Павлова, 11</t>
+          <t>р-н Советский, Советский район, посёлок Дербышки, ул. Правды, 26</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>24.3</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.863762,49.101779</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.869425,49.220859</t>
         </is>
       </c>
     </row>
@@ -1646,47 +1646,47 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Комната 17,7 м² в 1-к., 2/9 эт.</t>
+          <t>Комната 16,1 м² в 4-к., 7/9 эт.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_177m_v_1-k._29et._3041699199</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_161m_v_4-k._79et._3112281586</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3041699199</v>
+        <v>3112281586</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11.08.2023 в 08:51</t>
+          <t>13.08.2023 в 08:48</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1999000</v>
+        <v>1990000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Проспект Победы, пр-т Победы, 47</t>
+          <t>Горки, Советский район, микрорайон Азино-1, ул. Закиева, 9</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>17.7</v>
+        <v>16.1</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
         <v>9</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.756113,49.214805</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.776517,49.224363</t>
         </is>
       </c>
     </row>
@@ -1696,32 +1696,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Комната 36 м² в 2-к., 2/2 эт.</t>
+          <t>Комната 17 м² в 2-к., 2/9 эт.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_36m_v_2-k._22et._1321154579</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_2-k._29et._2943604766</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1321154579</v>
+        <v>2943604766</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10.08.2023 в 22:44</t>
+          <t>12.08.2023 в 15:23</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>850000</v>
+        <v>1650000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>?, с. Ключищи</t>
+          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1732,11 +1732,11 @@
         <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.674534,48.960896</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.797994,49.049092</t>
         </is>
       </c>
     </row>
@@ -1746,47 +1746,47 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Комната 16,1 м² в 4-к., 4/4 эт.</t>
+          <t>Комната 18 м² в 1-к., 9/9 эт.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_161m_v_4-k._44et._2550290071</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._99et._3165320869</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2550290071</v>
+        <v>3165320869</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10.08.2023 в 10:57</t>
+          <t>12.08.2023 в 04:53</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1750000</v>
+        <v>1699000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Лядова, 14</t>
+          <t>Авиастроительная, ул. Академика Павлова, 11</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16.1</v>
+        <v>18</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853703,49.076877</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.863762,49.101779</t>
         </is>
       </c>
     </row>
@@ -1796,32 +1796,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 2-к., 5/5 эт.</t>
+          <t>Комната 36 м² в 2-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_2-k._55et._2744663896</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_36m_v_2-k._22et._1321154579</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2744663896</v>
+        <v>1321154579</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10.08.2023 в 07:42</t>
+          <t>10.08.2023 в 22:44</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1650000</v>
+        <v>850000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Яшьлек, Республика Татарстан, Казань, Кировский район, Светлая улица</t>
+          <t>?, с. Ключищи</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1829,14 +1829,14 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.821967,49.042445</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.674534,48.960896</t>
         </is>
       </c>
     </row>
@@ -1846,20 +1846,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Комната 16,6 м² в 3-к., 4/5 эт.</t>
+          <t>Комната 16,1 м² в 4-к., 4/4 эт.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_166m_v_3-k._45et._2587478665</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_161m_v_4-k._44et._2550290071</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2587478665</v>
+        <v>2550290071</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>09.08.2023 в 20:02</t>
+          <t>10.08.2023 в 10:57</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1867,26 +1867,26 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Горки, Республика Татарстан, Казань, улица Профессора Камая, 7</t>
+          <t>Авиастроительная, ул. Лядова, 14</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>16.6</v>
+        <v>16.1</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J29" t="n">
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.752158,49.182027</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.853703,49.076877</t>
         </is>
       </c>
     </row>
@@ -1896,47 +1896,47 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 8-к., 6/9 эт.</t>
+          <t>Комната 16,5 м² в 2-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_8-k._69et._3333510393</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_2-k._55et._2744663896</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3333510393</v>
+        <v>2744663896</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>09.08.2023 в 11:10</t>
+          <t>10.08.2023 в 07:42</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1999999</v>
+        <v>1650000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Козья Слобода, ул. Маршала Чуйкова, 27</t>
+          <t>Яшьлек, Республика Татарстан, Казань, Кировский район, Светлая улица</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83656,49.126195</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.821967,49.042445</t>
         </is>
       </c>
     </row>
@@ -1946,47 +1946,47 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Комната 19,2 м² в 2-к., 3/9 эт.</t>
+          <t>Комната 16,6 м² в 3-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_192m_v_2-k._39et._3287855765</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_166m_v_3-k._45et._2587478665</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3287855765</v>
+        <v>2587478665</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>09.08.2023 в 09:01</t>
+          <t>09.08.2023 в 20:02</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1900000</v>
+        <v>1750000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>р-н Советский, Тополевая ул., 55</t>
+          <t>Горки, Республика Татарстан, Казань, улица Профессора Камая, 7</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>19.2</v>
+        <v>16.6</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.874617,49.22942</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.752158,49.182027</t>
         </is>
       </c>
     </row>
@@ -1996,47 +1996,47 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 3/5 эт.</t>
+          <t>Комната 17 м² в 8-к., 6/9 эт.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._35et._2965739914</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_8-k._69et._3333510393</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2965739914</v>
+        <v>3333510393</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>08.08.2023 в 15:01</t>
+          <t>09.08.2023 в 11:10</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1540000</v>
+        <v>1999999</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>р-н Советский, Советский район, посёлок Дербышки</t>
+          <t>Козья Слобода, ул. Маршала Чуйкова, 27</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.864561,49.224417</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83656,49.126195</t>
         </is>
       </c>
     </row>
@@ -2046,32 +2046,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Комната 17,5 м² в 2-к., 4/9 эт.</t>
+          <t>Комната 19,2 м² в 2-к., 3/9 эт.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_175m_v_2-k._49et._3044789148</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_192m_v_2-k._39et._3287855765</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3044789148</v>
+        <v>3287855765</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>08.08.2023 в 11:07</t>
+          <t>09.08.2023 в 09:01</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1640000</v>
+        <v>1900000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Авиастроительная, Республика Татарстан, Казань, улица Дементьева, 28к1</t>
+          <t>р-н Советский, Тополевая ул., 55</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17.5</v>
+        <v>19.2</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -2079,14 +2079,14 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
         <v>9</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.859534,49.103872</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.874617,49.22942</t>
         </is>
       </c>
     </row>
@@ -2096,47 +2096,47 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Комната 18,9 м² в 4-к., 9/9 эт.</t>
+          <t>Комната 18 м² в 1-к., 3/5 эт.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_189m_v_4-k._99et._2856789855</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._35et._2965739914</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2856789855</v>
+        <v>2965739914</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>08.08.2023 в 06:34</t>
+          <t>08.08.2023 в 15:01</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1330000</v>
+        <v>1540000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>р-н Кировский, Окраинная ул., 1</t>
+          <t>р-н Советский, Советский район, посёлок Дербышки</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.9</v>
+        <v>18</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.821785,48.89151</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.864561,49.224417</t>
         </is>
       </c>
     </row>
@@ -2146,47 +2146,47 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Комната 17,4 м² в 1-к., 1/5 эт.</t>
+          <t>Комната 17,5 м² в 2-к., 4/9 эт.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_1-k._15et._3283531808</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_175m_v_2-k._49et._3044789148</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3283531808</v>
+        <v>3044789148</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>07.08.2023 в 14:05</t>
+          <t>08.08.2023 в 11:07</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1700000</v>
+        <v>1640000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>р-н Кировский, Бирюзовая ул., 19</t>
+          <t>Авиастроительная, Республика Татарстан, Казань, улица Дементьева, 28к1</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.8196373,48.88547516</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.859534,49.103872</t>
         </is>
       </c>
     </row>
@@ -2196,47 +2196,47 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Комната 19,9 м² в 3-к., 1/2 эт.</t>
+          <t>Комната 18,9 м² в 4-к., 9/9 эт.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_199m_v_3-k._12et._677323296</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_189m_v_4-k._99et._2856789855</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>677323296</v>
+        <v>2856789855</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>07.08.2023 в 02:46</t>
+          <t>08.08.2023 в 06:34</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2000000</v>
+        <v>1330000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>р-н Советский, Сибирский тракт, 37</t>
+          <t>р-н Кировский, Окраинная ул., 1</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.819686,49.177893</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.821785,48.89151</t>
         </is>
       </c>
     </row>
@@ -2246,47 +2246,47 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Комната 21,1 м² в &gt; 9-к., 2/2 эт.</t>
+          <t>Комната 17,4 м² в 1-к., 1/5 эт.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_211m_v_9-k._22et._2939110299</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_1-k._15et._3283531808</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2939110299</v>
+        <v>3283531808</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>06.08.2023 в 16:27</t>
+          <t>07.08.2023 в 14:05</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1950000</v>
+        <v>1700000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Северный вокзал, ул. Восстания, 18В</t>
+          <t>р-н Кировский, Бирюзовая ул., 19</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>21.1</v>
+        <v>17.4</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.836595,49.093083</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.8196373,48.88547516</t>
         </is>
       </c>
     </row>
@@ -2296,47 +2296,47 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Комната 25,3 м² в 2-к., 2/3 эт.</t>
+          <t>Комната 19,9 м² в 3-к., 1/2 эт.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_253m_v_2-k._23et._3474176930</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_199m_v_3-k._12et._677323296</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3474176930</v>
+        <v>677323296</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>06.08.2023 в 14:26</t>
+          <t>07.08.2023 в 02:46</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Побежимова, 34А</t>
+          <t>р-н Советский, Сибирский тракт, 37</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>25.3</v>
+        <v>19.9</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
         <v>2</v>
       </c>
-      <c r="K38" t="n">
-        <v>3</v>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.860044,49.081468</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.819686,49.177893</t>
         </is>
       </c>
     </row>
@@ -2346,47 +2346,47 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Комната 16,9 м² в 3-к., 2/3 эт.</t>
+          <t>Комната 21,1 м² в &gt; 9-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_169m_v_3-k._23et._2693081476</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_211m_v_9-k._22et._2939110299</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2693081476</v>
+        <v>2939110299</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>06.08.2023 в 08:01</t>
+          <t>06.08.2023 в 16:27</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1700000</v>
+        <v>1950000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>р-н Советский, ул. Халезова, 5</t>
+          <t>Северный вокзал, ул. Восстания, 18В</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16.9</v>
+        <v>21.1</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="J39" t="n">
         <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.868753,49.224767</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.836595,49.093083</t>
         </is>
       </c>
     </row>
@@ -2396,47 +2396,47 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Комната 19 м² в 1-к., 4/5 эт.</t>
+          <t>Комната 25,3 м² в 2-к., 2/3 эт.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_19m_v_1-k._45et._2951769070</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_253m_v_2-k._23et._3474176930</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2951769070</v>
+        <v>3474176930</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>05.08.2023 в 08:29</t>
+          <t>06.08.2023 в 14:26</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Яшьлек, ул. Богатырёва, 4/2</t>
+          <t>Авиастроительная, ул. Побежимова, 34А</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>25.3</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.815655,49.055965</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.860044,49.081468</t>
         </is>
       </c>
     </row>
@@ -2446,47 +2446,47 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Комната 24,5 м² в 1-к., 4/5 эт.</t>
+          <t>Комната 16,9 м² в 3-к., 2/3 эт.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_245m_v_1-k._45et._3301775865</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_169m_v_3-k._23et._2693081476</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>3301775865</v>
+        <v>2693081476</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>03.08.2023 в 12:33</t>
+          <t>06.08.2023 в 08:01</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000000</v>
+        <v>1700000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>р-н Московский, ул. Гудованцева, 1</t>
+          <t>р-н Советский, ул. Халезова, 5</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>24.5</v>
+        <v>16.9</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862651,49.019161</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.868753,49.224767</t>
         </is>
       </c>
     </row>
@@ -2496,47 +2496,47 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 6-к., 2/5 эт.</t>
+          <t>Комната 19 м² в 1-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_6-k._25et._3022019320</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_19m_v_1-k._45et._2951769070</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3022019320</v>
+        <v>2951769070</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>03.08.2023 в 12:16</t>
+          <t>05.08.2023 в 08:29</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Яшьлек, ул. Восстания, 27</t>
+          <t>Яшьлек, ул. Богатырёва, 4/2</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
         <v>5</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.834488,49.091751</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.815655,49.055965</t>
         </is>
       </c>
     </row>
@@ -2546,47 +2546,47 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 2-к., 5/5 эт.</t>
+          <t>Комната 24,5 м² в 1-к., 4/5 эт.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_2-k._55et._3178109590</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_245m_v_1-k._45et._3301775865</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3178109590</v>
+        <v>3301775865</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>02.08.2023 в 15:23</t>
+          <t>03.08.2023 в 12:33</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1720000</v>
+        <v>2000000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Авиастроительная, Индустриальная ул., 3</t>
+          <t>р-н Московский, ул. Гудованцева, 1</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>5</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.855386,49.08277</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862651,49.019161</t>
         </is>
       </c>
     </row>
@@ -2596,47 +2596,47 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 2/2 эт.</t>
+          <t>Комната 17 м² в 6-к., 2/5 эт.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._22et._3047634403</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_6-k._25et._3022019320</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3047634403</v>
+        <v>3022019320</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>01.08.2023 в 11:37</t>
+          <t>03.08.2023 в 12:16</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Авиастроительная, 2-я Ленинградская ул., 12</t>
+          <t>Яшьлек, ул. Восстания, 27</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86102933590011,49.08806489561644</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.834488,49.091751</t>
         </is>
       </c>
     </row>
@@ -2646,36 +2646,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Комната 17,9 м² в 5-к., 5/5 эт.</t>
+          <t>Комната 16,5 м² в 2-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_179m_v_5-k._55et._2791691018</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_2-k._55et._3178109590</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2791691018</v>
+        <v>3178109590</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>31.07.2023 в 18:06</t>
+          <t>02.08.2023 в 15:23</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>925000</v>
+        <v>1720000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>р-н Московский, Беломорская ул., 246</t>
+          <t>Авиастроительная, Индустриальная ул., 3</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>17.9</v>
+        <v>16.5</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.867713,49.017139</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.855386,49.08277</t>
         </is>
       </c>
     </row>
@@ -2696,47 +2696,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Комната 26 м² в 4-к., 5/5 эт.</t>
+          <t>Комната 18 м² в 1-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_26m_v_4-k._55et._2535233866</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._22et._3047634403</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2535233866</v>
+        <v>3047634403</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>31.07.2023 в 17:52</t>
+          <t>01.08.2023 в 11:37</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>945000</v>
+        <v>1800000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>р-н Московский, ул. Химиков, 59</t>
+          <t>Авиастроительная, 2-я Ленинградская ул., 12</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.87797,49.016843</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86102933590011,49.08806489561644</t>
         </is>
       </c>
     </row>
@@ -2746,47 +2746,47 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Комната 17,4 м² в 8-к., 8/9 эт.</t>
+          <t>Комната 17,9 м² в 5-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_8-k._89et._2961953863</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_179m_v_5-k._55et._2791691018</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2961953863</v>
+        <v>2791691018</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>31.07.2023 в 16:21</t>
+          <t>31.07.2023 в 18:06</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1750000</v>
+        <v>920000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
+          <t>р-н Московский, Беломорская ул., 246</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.79806152372118,49.04889351653279</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.867713,49.017139</t>
         </is>
       </c>
     </row>
@@ -2796,47 +2796,47 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Комната 16,8 м² в 3-к., 2/3 эт.</t>
+          <t>Комната 26 м² в 4-к., 5/5 эт.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_168m_v_3-k._23et._3291378663</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_26m_v_4-k._55et._2535233866</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>3291378663</v>
+        <v>2535233866</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>31.07.2023 в 15:24</t>
+          <t>31.07.2023 в 17:52</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1400000</v>
+        <v>940000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>р-н Советский, Начальная ул., 19</t>
+          <t>р-н Московский, ул. Химиков, 59</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16.8</v>
+        <v>26</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86742019676974,49.22590937301594</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.87797,49.016843</t>
         </is>
       </c>
     </row>
@@ -2846,47 +2846,47 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Комната 24 м² в 4-к., 2/5 эт.</t>
+          <t>Комната 17,4 м² в 8-к., 8/9 эт.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_24m_v_4-k._25et._2941396401</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_174m_v_8-k._89et._2961953863</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2941396401</v>
+        <v>2961953863</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>31.07.2023 в 09:24</t>
+          <t>31.07.2023 в 16:21</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1900000</v>
+        <v>1750000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>р-н Авиастроительный, Республика Татарстан, Казань, Беломорская улица, 69</t>
+          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>24</v>
+        <v>17.4</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.866379,49.021865</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.79806152372118,49.04889351653279</t>
         </is>
       </c>
     </row>
@@ -2896,32 +2896,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 3-к., 4/4 эт.</t>
+          <t>Комната 16,8 м² в 3-к., 2/3 эт.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_3-k._44et._3194089839</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_168m_v_3-k._23et._3291378663</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3194089839</v>
+        <v>3291378663</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>30.07.2023 в 22:45</t>
+          <t>31.07.2023 в 15:24</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1550000</v>
+        <v>1400000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Козья Слобода, Кировский район, Шоссейная ул., 15</t>
+          <t>р-н Советский, Начальная ул., 19</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2929,145 +2929,145 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.808432,49.078737</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.86742019676974,49.22590937301594</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 1-к., 3/5 эт.</t>
+          <t>Комната 24 м² в 4-к., 2/5 эт.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._35et._3441716222</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_24m_v_4-k._25et._2941396401</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3441716222</v>
+        <v>2941396401</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>30.07.2023 в 22:31</t>
+          <t>31.07.2023 в 09:24</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000000</v>
+        <v>1900000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>р-н Советский, ул. Солидарности, 14</t>
+          <t>р-н Авиастроительный, Республика Татарстан, Казань, Беломорская улица, 69</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>5</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.860696,49.227956</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.866379,49.021865</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 1-к., 3/5 эт.</t>
+          <t>Комната 16,5 м² в 3-к., 4/4 эт.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._35et._3268067648</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_3-k._44et._3194089839</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>3268067648</v>
+        <v>3194089839</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>30.07.2023 в 11:22</t>
+          <t>30.07.2023 в 22:45</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000000</v>
+        <v>1550000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Авиастроительная, Беломорская ул., 33А</t>
+          <t>Козья Слобода, Кировский район, Шоссейная ул., 15</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.865081,49.072808</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.808432,49.078737</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Комната 17 м² в 1-к., 2/4 эт.</t>
+          <t>Комната 17 м² в 1-к., 3/5 эт.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._24et._3100631616</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._35et._3441716222</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3100631616</v>
+        <v>3441716222</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>29.07.2023 в 10:27</t>
+          <t>30.07.2023 в 22:31</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Яшьлек, ул. 25 Октября, 16/9</t>
+          <t>р-н Советский, ул. Солидарности, 14</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3079,203 +3079,203 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.815473,49.061319</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.860696,49.227956</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Комната 18 м² в 1-к., 3/5 эт.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_1-k._35et._3268067648</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3268067648</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.07.2023 в 11:22</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Авиастроительная, Беломорская ул., 33А</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>18</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Комната 19,4 м² в 1-к., 5/9 эт.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_194m_v_1-k._59et._3062930087</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>3062930087</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>27.07.2023 в 21:09</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>1850000</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>р-н Советский, Тополевая ул., 55</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>5</v>
       </c>
-      <c r="K54" t="n">
-        <v>9</v>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.87461853,49.22941971</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.865081,49.072808</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Комната 17,8 м² в 3-к., 2/2 эт.</t>
+          <t>Комната 17 м² в 1-к., 2/4 эт.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_178m_v_3-k._22et._3056486600</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._24et._3100631616</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3056486600</v>
+        <v>3100631616</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>27.07.2023 в 10:36</t>
+          <t>29.07.2023 в 10:27</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1499000</v>
+        <v>1800000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Суконная слобода, ул. Наки Исанбета, 53</t>
+          <t>Яшьлек, ул. 25 Октября, 16/9</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J55" t="n">
         <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.783904,49.173904</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.815473,49.061319</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Комната 19,4 м² в 1-к., 5/9 эт.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_194m_v_1-k._59et._3062930087</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>3062930087</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>27.07.2023 в 21:09</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>р-н Советский, Тополевая ул., 55</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
         <v>5</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Комната 17 м² в 1-к., 3/3 эт.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._33et._2935894053</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2935894053</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>27.07.2023 в 09:31</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>р-н Приволжский, Южно-Промышленная ул., 1/77Б</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>17</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>3</v>
-      </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.73157268967071,49.09569321687658</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.87461853,49.22941971</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Комната 20,4 м² в 1-к., 2/2 эт.</t>
+          <t>Комната 17,8 м² в 3-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_204m_v_1-k._22et._3085905951</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_178m_v_3-k._22et._3056486600</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>3085905951</v>
+        <v>3056486600</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>27.07.2023 в 09:04</t>
+          <t>27.07.2023 в 10:36</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1800000</v>
+        <v>1499000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>р-н Советский, ул. Липатова, 15</t>
+          <t>Суконная слобода, ул. Наки Исанбета, 53</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>20.4</v>
+        <v>17.8</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J57" t="n">
@@ -3286,507 +3286,557 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.868536,49.218721</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.783904,49.173904</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Комната 23 м² в 4-к., 1/5 эт.</t>
+          <t>Комната 17 м² в 1-к., 3/3 эт.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_23m_v_4-k._15et._3197628724</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_1-k._33et._2935894053</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3197628724</v>
+        <v>2935894053</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>26.07.2023 в 19:27</t>
+          <t>27.07.2023 в 09:31</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1700000</v>
+        <v>1000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Кремлёвская, ул. Серп и Молот, 24А</t>
+          <t>р-н Приволжский, Южно-Промышленная ул., 1/77Б</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.798809,49.066708</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.73157268967071,49.09569321687658</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 6-к., 8/9 эт.</t>
+          <t>Комната 20,4 м² в 1-к., 2/2 эт.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_6-k._89et._3035061606</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_204m_v_1-k._22et._3085905951</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3035061606</v>
+        <v>3085905951</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>25.07.2023 в 18:46</t>
+          <t>27.07.2023 в 09:04</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1950000</v>
+        <v>1800000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Козья Слобода, ул. Маршала Чуйкова, 27</t>
+          <t>р-н Советский, ул. Липатова, 15</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>18</v>
+        <v>20.4</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.8366,49.126195</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.868536,49.218721</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 3-к., 3/5 эт.</t>
+          <t>Комната 23 м² в 4-к., 1/5 эт.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_3-k._35et._2940649573</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_23m_v_4-k._15et._3197628724</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2940649573</v>
+        <v>3197628724</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>25.07.2023 в 18:04</t>
+          <t>26.07.2023 в 19:27</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1800000</v>
+        <v>1700000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Копылова, 3</t>
+          <t>Кремлёвская, ул. Серп и Молот, 24А</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>5</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.851995,49.083606</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.798809,49.066708</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Комната 16,8 м² в 2-к., 3/3 эт.</t>
+          <t>Комната 18 м² в 6-к., 8/9 эт.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_168m_v_2-k._33et._3031758929</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_6-k._89et._3035061606</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3031758929</v>
+        <v>3035061606</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>25.07.2023 в 16:45</t>
+          <t>25.07.2023 в 18:46</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1860000</v>
+        <v>1950000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Авиастроительная, ул. Белинского, 4</t>
+          <t>Козья Слобода, ул. Маршала Чуйкова, 27</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>16.8</v>
+        <v>18</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K61" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.854461,49.082698</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.8366,49.126195</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Комната 18,6 м² в 1-к., 3/3 эт.</t>
+          <t>Комната 16,5 м² в 3-к., 3/5 эт.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_186m_v_1-k._33et._3177609619</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_3-k._35et._2940649573</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3177609619</v>
+        <v>2940649573</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>25.07.2023 в 09:22</t>
+          <t>25.07.2023 в 18:04</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1950000</v>
+        <v>1800000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Яшьлек, Республика Татарстан, Казань, улица Тунакова, 43</t>
+          <t>Авиастроительная, ул. Копылова, 3</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>18.6</v>
+        <v>16.5</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J62" t="n">
         <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83163,49.085375</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.851995,49.083606</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Комната 16,5 м² в 1-к., 2/9 эт.</t>
+          <t>Комната 16,8 м² в 2-к., 3/3 эт.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_1-k._29et._3242178784</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_168m_v_2-k._33et._3031758929</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>3242178784</v>
+        <v>3031758929</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>24.07.2023 в 17:03</t>
+          <t>25.07.2023 в 16:45</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2000000</v>
+        <v>1860000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
+          <t>Авиастроительная, ул. Белинского, 4</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>16.5</v>
+        <v>16.8</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.797994,49.049092</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.854461,49.082698</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Комната 18 м² в 4-к., 1/1 эт.</t>
+          <t>Комната 18,6 м² в 1-к., 3/3 эт.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_4-k._11et._3236462445</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_186m_v_1-k._33et._3177609619</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3236462445</v>
+        <v>3177609619</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>24.07.2023 в 12:49</t>
+          <t>25.07.2023 в 09:22</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1750000</v>
+        <v>1950000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Аметьево, Авангардная ул., 87</t>
+          <t>Яшьлек, Республика Татарстан, Казань, улица Тунакова, 43</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>18</v>
+        <v>18.6</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.747723,49.143739</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.83163,49.085375</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Комната 22,6 м² в 3-к., 1/3 эт.</t>
+          <t>Комната 16,5 м² в 1-к., 2/9 эт.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_226m_v_3-k._13et._3115804777</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_165m_v_1-k._29et._3242178784</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3115804777</v>
+        <v>3242178784</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>24.07.2023 в 10:20</t>
+          <t>24.07.2023 в 17:03</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1850000</v>
+        <v>2000000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Северный вокзал, ул. Академика Королёва, 24/30</t>
+          <t>Кремлёвская, ул. Клары Цеткин, 34</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>22.6</v>
+        <v>16.5</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.838844,49.06961</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.797994,49.049092</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Комната 24,4 м² в 2-к., 5/5 эт.</t>
+          <t>Комната 18 м² в 4-к., 1/1 эт.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_244m_v_2-k._55et._3242169672</t>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_18m_v_4-k._11et._3236462445</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3242169672</v>
+        <v>3236462445</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>23.07.2023 в 16:44</t>
+          <t>24.07.2023 в 12:49</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1950000</v>
+        <v>1750000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>р-н Московский, ул. Гудованцева, 1</t>
+          <t>Аметьево, Авангардная ул., 87</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>24.4</v>
+        <v>18</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862651,49.019161</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.747723,49.143739</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Комната 22,6 м² в 3-к., 1/3 эт.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_226m_v_3-k._13et._3115804777</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3115804777</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>24.07.2023 в 10:20</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1850000</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Северный вокзал, ул. Академика Королёва, 24/30</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.838844,49.06961</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Комната 17 м² в 2-к., 4/4 эт.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://www.avito.ru/kazan/komnaty/komnata_17m_v_2-k._44et._2410990081</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2410990081</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>22.07.2023 в 10:03</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>1450000</v>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>р-н Кировский, ул. Ильича, 38</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>17</v>
-      </c>
-      <c r="I67" t="inlineStr">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Комната 24,4 м² в 2-к., 5/5 эт.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.avito.ru/kazan/komnaty/komnata_244m_v_2-k._55et._3242169672</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3242169672</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.07.2023 в 16:44</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>р-н Московский, ул. Гудованцева, 1</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J67" t="n">
-        <v>4</v>
-      </c>
-      <c r="K67" t="n">
-        <v>4</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=55.821846,48.898724</t>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>5</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=55.862651,49.019161</t>
         </is>
       </c>
     </row>
